--- a/DMSNewVSale_2025-12-25_14-06.xlsx
+++ b/DMSNewVSale_2025-12-25_14-06.xlsx
@@ -267,6 +267,15 @@
   </si>
   <si>
     <t>120.0000</t>
+  </si>
+  <si>
+    <t>TRIMED FLU 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
   </si>
   <si>
     <t>TRIVASTAL RETARD 50MG 30 TAB.</t>
@@ -1745,7 +1754,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1755,14 +1764,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1771,14 +1780,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1788,14 +1797,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1804,20 +1813,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1828,7 +1837,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1837,7 +1846,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1854,14 +1863,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>103</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>40</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1887,11 +1896,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>40</v>
@@ -1903,7 +1912,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1920,51 +1929,84 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" ht="26.25" customHeight="1">
-      <c r="N36" s="13">
-        <v>2903.7350000000001</v>
-      </c>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>108</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>17</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>47</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
         <v>109</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
         <v>110</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c t="s" r="Q36" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" ht="26.25" customHeight="1">
+      <c r="N37" s="13">
+        <v>2961.7350000000001</v>
+      </c>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>111</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>112</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>113</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2118,10 +2160,15 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
